--- a/biology/Botanique/William_Kent/William_Kent.xlsx
+++ b/biology/Botanique/William_Kent/William_Kent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Kent, né en 1684 ou en 1685 et mort le 12 avril 1748, est un important architecte, architecte-paysagiste, peintre et graveur britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Bridlington dans le Yorkshire, il est considéré comme l'inventeur des jardins anglais et des poussettes.
 Il a dessiné les jardins de :
@@ -521,7 +535,7 @@
 Rousham House à Rousham dans l'Oxfordshire.
 Il a été l'architecte du bâtiment suivant : 
 Le 10 Downing Street à Londres.
-Il a illustré Les Saisons de James Thomson de dessins gravés par Nicolas-Henri Tardieu ou par lui-même[1].
+Il a illustré Les Saisons de James Thomson de dessins gravés par Nicolas-Henri Tardieu ou par lui-même.
 William Kent fut très proche du couple formé par le comte de Burlington et son épouse Dorothy Savile Boyle ; il enseigna à cette dernière l'art du pastel et du portrait.
 William Hogarth exécuta une gravure satirique de Kent en 1725 intitulée A Burlesque on Kent’s Altarpiece.
 </t>
